--- a/Trabalho 3/JP/Diagramas e Tabelas.xlsx
+++ b/Trabalho 3/JP/Diagramas e Tabelas.xlsx
@@ -321,13 +321,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,11 +689,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="-2110926464"/>
-        <c:axId val="-2110924304"/>
+        <c:axId val="-2140226480"/>
+        <c:axId val="2122416880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110926464"/>
+        <c:axId val="-2140226480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110924304"/>
+        <c:crossAx val="2122416880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110924304"/>
+        <c:axId val="2122416880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +814,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110926464"/>
+        <c:crossAx val="-2140226480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,28 +1012,28 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,11 +1207,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="-2110945008"/>
-        <c:axId val="-2110908512"/>
+        <c:axId val="-2099311008"/>
+        <c:axId val="-2099307456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110945008"/>
+        <c:axId val="-2099311008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110908512"/>
+        <c:crossAx val="-2099307456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110908512"/>
+        <c:axId val="-2099307456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1332,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110945008"/>
+        <c:crossAx val="-2099311008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,31 +1527,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1681,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0</c:v>
@@ -1705,7 +1705,7 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.0</c:v>
@@ -1725,11 +1725,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="-2112372880"/>
-        <c:axId val="-2112369184"/>
+        <c:axId val="-2104757328"/>
+        <c:axId val="-2104731424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112372880"/>
+        <c:axId val="-2104757328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +1786,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112369184"/>
+        <c:crossAx val="-2104731424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1794,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112369184"/>
+        <c:axId val="-2104731424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +1850,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112372880"/>
+        <c:crossAx val="-2104757328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3937,12 +3937,12 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1">
         <v>7</v>
@@ -4056,7 +4056,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -4096,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -4116,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
@@ -4136,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1">
         <v>8</v>
@@ -4156,15 +4156,15 @@
         <v>11</v>
       </c>
       <c r="J12" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4176,8 +4176,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="J18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4185,64 +4185,64 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="J19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="J20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="J21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K22" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>8</v>
       </c>
       <c r="K24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
         <v>6</v>
@@ -4269,7 +4269,7 @@
         <v>9</v>
       </c>
       <c r="K25" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
@@ -4283,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4291,7 +4291,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
@@ -4319,25 +4319,25 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
